--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-sprint-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-sprint-top-by-best-speed.xlsx
@@ -68,7 +68,7 @@
     <t>Galoperidol</t>
   </si>
   <si>
-    <t>1 ч. 17 мин. 4 сек.</t>
+    <t>1 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -122,7 +122,7 @@
     <t>_Mira_</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 42 сек.</t>
+    <t>1 ч. 01 мин. 42 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>Oxanette</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 42 сек.</t>
+    <t>1 ч. 04 мин. 42 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -173,7 +173,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 7 сек.</t>
+    <t>1 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -182,7 +182,7 @@
     <t>Гегемон</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 5 сек.</t>
+    <t>1 ч. 53 мин. 05 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -251,7 +251,7 @@
     <t>SnowMen</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 15 сек.</t>
+    <t>1 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>AvtandiLine</t>
@@ -314,7 +314,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 19 сек.</t>
+    <t>7 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>33</t>
@@ -332,7 +332,7 @@
     <t>Riki234</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 4 сек.</t>
+    <t>1 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>35</t>
@@ -350,7 +350,7 @@
     <t>Wind_Of_Change</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 57 сек.</t>
+    <t>1 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -368,7 +368,7 @@
     <t>PROcent</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 8 сек.</t>
+    <t>2 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>39</t>
@@ -377,7 +377,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 2 сек.</t>
+    <t>1 ч. 27 мин. 02 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -425,7 +425,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 14 сек.</t>
+    <t>2 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -449,7 +449,7 @@
     <t>Всего_хорошего</t>
   </si>
   <si>
-    <t>3 ч. 57 мин. 8 сек.</t>
+    <t>3 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>49–50</t>
@@ -482,7 +482,7 @@
     <t>Коретай</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 2 сек.</t>
+    <t>1 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -491,7 +491,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 58 сек.</t>
+    <t>2 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -500,7 +500,7 @@
     <t>serg_omen</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 6 сек.</t>
+    <t>1 ч. 05 мин. 06 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -509,7 +509,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 50 сек.</t>
+    <t>5 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>56</t>
@@ -518,7 +518,7 @@
     <t>Explorerpro</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 15 сек.</t>
+    <t>1 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>57</t>
@@ -536,7 +536,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 1 сек.</t>
+    <t>5 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>59</t>
@@ -554,7 +554,7 @@
     <t>Лягушкэ</t>
   </si>
   <si>
-    <t>17 ч. 52 мин. 1 сек.</t>
+    <t>17 ч. 52 мин. 01 сек.</t>
   </si>
   <si>
     <t>61–62</t>
@@ -569,7 +569,7 @@
     <t>al0ne</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 30 сек.</t>
+    <t>1 ч. 00 мин. 30 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -602,7 +602,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 29 сек.</t>
+    <t>4 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>AcidMan</t>
@@ -614,7 +614,7 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 19 сек.</t>
+    <t>9 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -704,7 +704,7 @@
     <t>Переборыч</t>
   </si>
   <si>
-    <t>4 ч. 52 мин. 8 сек.</t>
+    <t>4 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>80–83</t>
@@ -713,19 +713,19 @@
     <t>Seyaua</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 2 сек.</t>
+    <t>1 ч. 50 мин. 02 сек.</t>
   </si>
   <si>
     <t>паукан</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 12 сек.</t>
+    <t>6 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>plytishka</t>
   </si>
   <si>
-    <t>6 ч. 44 мин. 9 сек.</t>
+    <t>6 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>Lelick</t>
@@ -746,7 +746,7 @@
     <t>Fris_Chroome</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 55 сек.</t>
+    <t>22 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>86–87</t>
@@ -761,7 +761,7 @@
     <t>meganoob</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 19 сек.</t>
+    <t>2 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>88–89</t>
@@ -770,13 +770,13 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 4 сек.</t>
+    <t>18 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>задумчивый</t>
   </si>
   <si>
-    <t>22 ч. 7 мин. 5 сек.</t>
+    <t>22 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>90</t>
@@ -836,7 +836,7 @@
     <t>Похудистка</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 5 сек.</t>
+    <t>1 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>LeBron</t>
@@ -857,7 +857,7 @@
     <t>iPitbull</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 0 сек.</t>
+    <t>2 ч. 54 мин. 00 сек.</t>
   </si>
   <si>
     <t>100–101</t>
@@ -887,7 +887,7 @@
     <t>strengthofgod</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 51 сек.</t>
+    <t>9 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>104</t>
@@ -896,7 +896,7 @@
     <t>HeyJoe</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 7 сек.</t>
+    <t>2 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>105</t>
@@ -941,7 +941,7 @@
     <t>spoNS</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 52 сек.</t>
+    <t>4 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>ролд</t>
@@ -986,7 +986,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>6 ч. 28 мин. 7 сек.</t>
+    <t>6 ч. 28 мин. 07 сек.</t>
   </si>
   <si>
     <t>116–118</t>
@@ -995,13 +995,13 @@
     <t>Tahion</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 6 сек.</t>
+    <t>1 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>Nistu</t>
   </si>
   <si>
-    <t>9 ч. 57 мин. 8 сек.</t>
+    <t>9 ч. 57 мин. 08 сек.</t>
   </si>
   <si>
     <t>ТОМА-АТОМНАЯ</t>
@@ -1025,7 +1025,7 @@
     <t>Сонь</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 4 сек.</t>
+    <t>25 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1034,7 +1034,7 @@
     <t>Pcholka</t>
   </si>
   <si>
-    <t>26 ч. 7 мин. 22 сек.</t>
+    <t>26 ч. 07 мин. 22 сек.</t>
   </si>
   <si>
     <t>122</t>
@@ -1070,7 +1070,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>2 ч. 13 мин. 4 сек.</t>
+    <t>2 ч. 13 мин. 04 сек.</t>
   </si>
   <si>
     <t>126</t>
@@ -1079,7 +1079,7 @@
     <t>Catsvill</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>127–129</t>
@@ -1094,7 +1094,7 @@
     <t>Wonder</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 2 сек.</t>
+    <t>2 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>valeryani</t>
@@ -1130,7 +1130,7 @@
     <t>Lifeisgood3k</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 9 сек.</t>
+    <t>1 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>GGHFGL</t>
@@ -1145,13 +1145,13 @@
     <t>ramon105</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 33 сек.</t>
+    <t>1 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>CaypoH</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 1 сек.</t>
+    <t>4 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>137</t>
@@ -1184,7 +1184,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 2 сек.</t>
+    <t>1 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>scar89</t>
@@ -1199,13 +1199,13 @@
     <t>iji</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 0 сек.</t>
+    <t>1 ч. 57 мин. 00 сек.</t>
   </si>
   <si>
     <t>TypeError</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 2 сек.</t>
+    <t>3 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>FarWin</t>
@@ -1244,7 +1244,7 @@
     <t>Kenichi</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 56 сек.</t>
+    <t>4 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>149–153</t>
@@ -1259,7 +1259,7 @@
     <t>ТрупОдиночка</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 19 сек.</t>
+    <t>1 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>Leu</t>
@@ -1325,7 +1325,7 @@
     <t>Espera</t>
   </si>
   <si>
-    <t>8 ч. 4 мин. 41 сек.</t>
+    <t>8 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>161</t>
@@ -1358,13 +1358,13 @@
     <t>TuaDop</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 52 сек.</t>
+    <t>1 ч. 00 мин. 52 сек.</t>
   </si>
   <si>
     <t>УчусьБезОшибок</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 4 сек.</t>
+    <t>1 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>ILyaDens</t>
@@ -1376,7 +1376,7 @@
     <t>kameheb</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 41 сек.</t>
+    <t>5 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>Victor_storm</t>
@@ -1391,7 +1391,7 @@
     <t>_Akamoe_</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 34 сек.</t>
+    <t>1 ч. 00 мин. 34 сек.</t>
   </si>
   <si>
     <t>MMMAAANNN</t>
@@ -1403,7 +1403,7 @@
     <t>KiD2</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 33 сек.</t>
+    <t>1 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>_600_</t>
@@ -1454,7 +1454,7 @@
     <t>avaloni</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>турандот</t>
@@ -1475,7 +1475,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 10 сек.</t>
+    <t>1 ч. 06 мин. 10 сек.</t>
   </si>
   <si>
     <t>Эники</t>
@@ -1496,13 +1496,13 @@
     <t>-creed-</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 24 сек.</t>
+    <t>2 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>VanDyk</t>
   </si>
   <si>
-    <t>12 ч. 12 мин. 2 сек.</t>
+    <t>12 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>186–187</t>
@@ -1526,7 +1526,7 @@
     <t>Nevermor</t>
   </si>
   <si>
-    <t>23 ч. 7 мин. 38 сек.</t>
+    <t>23 ч. 07 мин. 38 сек.</t>
   </si>
   <si>
     <t>189</t>
@@ -1568,7 +1568,7 @@
     <t>_onix</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 35 сек.</t>
+    <t>1 ч. 00 мин. 35 сек.</t>
   </si>
   <si>
     <t>dsdt</t>
@@ -1580,13 +1580,13 @@
     <t>system_error</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 27 сек.</t>
+    <t>2 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>Rb7</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 48 сек.</t>
+    <t>2 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>_ECO_</t>
@@ -1601,7 +1601,7 @@
     <t>Adjery</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 41 сек.</t>
+    <t>1 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>Satory</t>
@@ -1616,7 +1616,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 54 сек.</t>
+    <t>13 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>201</t>
@@ -1640,7 +1640,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 33 сек.</t>
+    <t>4 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>204–206</t>
@@ -1655,7 +1655,7 @@
     <t>udezich</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 21 сек.</t>
+    <t>3 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>a_mikhaylov</t>
@@ -1670,7 +1670,7 @@
     <t>TDV</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 33 сек.</t>
+    <t>1 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>DMIB</t>
@@ -1691,7 +1691,7 @@
     <t>-IL-</t>
   </si>
   <si>
-    <t>3 ч. 48 мин. 6 сек.</t>
+    <t>3 ч. 48 мин. 06 сек.</t>
   </si>
   <si>
     <t>211–212</t>
@@ -1742,7 +1742,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 57 сек.</t>
+    <t>3 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>__Anastasia__</t>
@@ -1763,7 +1763,7 @@
     <t>alenka</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 5 сек.</t>
+    <t>2 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>saratovlawyer</t>
@@ -1775,7 +1775,7 @@
     <t>Suseika</t>
   </si>
   <si>
-    <t>18 ч. 43 мин. 0 сек.</t>
+    <t>18 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>223–225</t>
@@ -1784,7 +1784,7 @@
     <t>kryto</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 3 сек.</t>
+    <t>1 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>Alexey89</t>
@@ -1823,7 +1823,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 47 сек.</t>
+    <t>3 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>230–232</t>
@@ -1832,7 +1832,7 @@
     <t>serge-kruf</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 52 сек.</t>
+    <t>1 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>Варя9</t>
@@ -1862,7 +1862,7 @@
     <t>Makis</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 16 сек.</t>
+    <t>1 ч. 03 мин. 16 сек.</t>
   </si>
   <si>
     <t>m9so88</t>
@@ -1889,7 +1889,7 @@
     <t>onealoner</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 47 сек.</t>
+    <t>3 ч. 00 мин. 47 сек.</t>
   </si>
   <si>
     <t>239–240</t>
@@ -1904,7 +1904,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 8 сек.</t>
+    <t>4 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>241–247</t>
@@ -1916,7 +1916,7 @@
     <t>Pasha18</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 5 сек.</t>
+    <t>1 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>Zippin</t>
@@ -1934,19 +1934,19 @@
     <t>RombOs</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 49 сек.</t>
+    <t>5 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>мимими</t>
   </si>
   <si>
-    <t>8 ч. 0 мин. 21 сек.</t>
+    <t>8 ч. 00 мин. 21 сек.</t>
   </si>
   <si>
     <t>Алька007</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 12 сек.</t>
+    <t>8 ч. 06 мин. 12 сек.</t>
   </si>
   <si>
     <t>248–251</t>
@@ -1973,7 +1973,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 5 сек.</t>
+    <t>11 ч. 37 мин. 05 сек.</t>
   </si>
   <si>
     <t>252–257</t>
@@ -1988,7 +1988,7 @@
     <t>Apox</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 48 сек.</t>
+    <t>1 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>coffeek</t>
@@ -2000,7 +2000,7 @@
     <t>Мазок</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 55 сек.</t>
+    <t>2 ч. 05 мин. 55 сек.</t>
   </si>
   <si>
     <t>Chedi</t>
@@ -2012,7 +2012,7 @@
     <t>Снус</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 38 сек.</t>
+    <t>3 ч. 07 мин. 38 сек.</t>
   </si>
   <si>
     <t>258–260</t>
@@ -2096,7 +2096,7 @@
     <t>8ele8</t>
   </si>
   <si>
-    <t>5 ч. 3 мин. 49 сек.</t>
+    <t>5 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>_nikki_</t>
@@ -2111,7 +2111,7 @@
     <t>seregagrig</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 9 сек.</t>
+    <t>1 ч. 41 мин. 09 сек.</t>
   </si>
   <si>
     <t>Greedlaze</t>
@@ -2150,7 +2150,7 @@
     <t>sinicynal2000</t>
   </si>
   <si>
-    <t>41 ч. 8 мин. 33 сек.</t>
+    <t>41 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>278–280</t>
@@ -2180,13 +2180,13 @@
     <t>Kravis</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 37 сек.</t>
+    <t>1 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>Exolon</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 7 сек.</t>
+    <t>1 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>Клавишник</t>
@@ -2201,7 +2201,7 @@
     <t>oligarh83</t>
   </si>
   <si>
-    <t>3 ч. 43 мин. 6 сек.</t>
+    <t>3 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>285–287</t>
@@ -2309,7 +2309,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 42 сек.</t>
+    <t>6 ч. 06 мин. 42 сек.</t>
   </si>
   <si>
     <t>300–303</t>
@@ -2318,7 +2318,7 @@
     <t>optozorax</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 20 сек.</t>
+    <t>1 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>L29Ah</t>
@@ -2330,7 +2330,7 @@
     <t>haos2100</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 3 сек.</t>
+    <t>2 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>Lexanni</t>
@@ -2345,7 +2345,7 @@
     <t>Dark_Ruby</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 48 сек.</t>
+    <t>1 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>UPO</t>
@@ -2372,7 +2372,7 @@
     <t>Debugger</t>
   </si>
   <si>
-    <t>1 ч. 44 мин. 9 сек.</t>
+    <t>1 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>Jefmail</t>
@@ -2384,7 +2384,7 @@
     <t>milkmark</t>
   </si>
   <si>
-    <t>10 ч. 50 мин. 9 сек.</t>
+    <t>10 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>311–312</t>
@@ -2393,13 +2393,13 @@
     <t>Narwhale</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 8 сек.</t>
+    <t>1 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>9 ч. 15 мин. 6 сек.</t>
+    <t>9 ч. 15 мин. 06 сек.</t>
   </si>
   <si>
     <t>313</t>
@@ -2408,7 +2408,7 @@
     <t>ПИТ</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 41 сек.</t>
+    <t>4 ч. 09 мин. 41 сек.</t>
   </si>
   <si>
     <t>314–315</t>
@@ -2417,7 +2417,7 @@
     <t>Artursrst</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>WERT7</t>
@@ -2432,7 +2432,7 @@
     <t>Братишка</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 4 сек.</t>
+    <t>2 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>damir27</t>
@@ -2444,13 +2444,13 @@
     <t>Arishkou</t>
   </si>
   <si>
-    <t>2 ч. 27 мин. 6 сек.</t>
+    <t>2 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 43 сек.</t>
+    <t>4 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>320–325</t>
@@ -2459,7 +2459,7 @@
     <t>Ksano</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 39 сек.</t>
+    <t>1 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>ferona</t>
@@ -2498,7 +2498,7 @@
     <t>NigVan</t>
   </si>
   <si>
-    <t>1 ч. 18 мин. 3 сек.</t>
+    <t>1 ч. 18 мин. 03 сек.</t>
   </si>
   <si>
     <t>Уклюжий</t>
@@ -2525,7 +2525,7 @@
     <t>h0ly-n1</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 27 сек.</t>
+    <t>1 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>WellMaxT</t>
@@ -2537,7 +2537,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 6 сек.</t>
+    <t>4 ч. 05 мин. 06 сек.</t>
   </si>
   <si>
     <t>333–336</t>
@@ -2564,7 +2564,7 @@
     <t>MAXIMUSX</t>
   </si>
   <si>
-    <t>14 ч. 30 мин. 4 сек.</t>
+    <t>14 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>337–341</t>
@@ -2585,7 +2585,7 @@
     <t>Игорка</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 45 сек.</t>
+    <t>2 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>DarthVADER</t>
@@ -2669,7 +2669,7 @@
     <t>feuerstein</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 50 сек.</t>
+    <t>2 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>prz</t>
@@ -2687,7 +2687,7 @@
     <t>rewz</t>
   </si>
   <si>
-    <t>22 ч. 35 мин. 6 сек.</t>
+    <t>22 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>356–357</t>
@@ -2711,7 +2711,7 @@
     <t>Amateur_</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 4 сек.</t>
+    <t>1 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>359–364</t>
@@ -2720,7 +2720,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 1 сек.</t>
+    <t>1 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>Alkemist</t>
@@ -2738,7 +2738,7 @@
     <t>NinaVladi</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 51 сек.</t>
+    <t>7 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>Jon31</t>
@@ -2759,7 +2759,7 @@
     <t>Smartzero</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 9 сек.</t>
+    <t>1 ч. 06 мин. 09 сек.</t>
   </si>
   <si>
     <t>SpazZm</t>
@@ -2771,7 +2771,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>5 ч. 34 мин. 7 сек.</t>
+    <t>5 ч. 34 мин. 07 сек.</t>
   </si>
   <si>
     <t>suselfree</t>
@@ -2804,7 +2804,7 @@
     <t>Хазов</t>
   </si>
   <si>
-    <t>9 ч. 55 мин. 7 сек.</t>
+    <t>9 ч. 55 мин. 07 сек.</t>
   </si>
   <si>
     <t>373–376</t>
@@ -2819,7 +2819,7 @@
     <t>buerak</t>
   </si>
   <si>
-    <t>2 ч. 36 мин. 4 сек.</t>
+    <t>2 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>a_shir</t>
@@ -2831,7 +2831,7 @@
     <t>Божок_Евгений</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 1 сек.</t>
+    <t>3 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>377–379</t>
@@ -2870,13 +2870,13 @@
     <t>morgan_hot</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>Nondv</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 4 сек.</t>
+    <t>1 ч. 40 мин. 04 сек.</t>
   </si>
   <si>
     <t>TwinDima</t>
@@ -2894,7 +2894,7 @@
     <t>marikYES</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 1 сек.</t>
+    <t>3 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>WhiteWhisper</t>
@@ -2915,7 +2915,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 0 сек.</t>
+    <t>2 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>belkaoboroten</t>
@@ -2927,7 +2927,7 @@
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>10 ч. 59 мин. 9 сек.</t>
+    <t>10 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>391</t>
@@ -2945,7 +2945,7 @@
     <t>Wolf4</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 16 сек.</t>
+    <t>2 ч. 01 мин. 16 сек.</t>
   </si>
   <si>
     <t>Tazovod</t>
@@ -2963,13 +2963,13 @@
     <t>Alice_Majak</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 2 сек.</t>
+    <t>3 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>carmero</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 15 сек.</t>
+    <t>17 ч. 09 мин. 15 сек.</t>
   </si>
   <si>
     <t>397</t>
@@ -2987,7 +2987,7 @@
     <t>s_a_k_u_r_a</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 8 сек.</t>
+    <t>1 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>EIV</t>
@@ -3011,7 +3011,7 @@
     <t>mhkoroboff</t>
   </si>
   <si>
-    <t>2 ч. 41 мин. 6 сек.</t>
+    <t>2 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>Кокандский</t>
@@ -3047,7 +3047,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 0 сек.</t>
+    <t>9 ч. 01 мин. 00 сек.</t>
   </si>
   <si>
     <t>409–412</t>
@@ -3056,7 +3056,7 @@
     <t>Гимли</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 18 сек.</t>
+    <t>1 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>ZVEZDNAYA</t>
@@ -3083,7 +3083,7 @@
     <t>Umme</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 31 сек.</t>
+    <t>1 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>Telefunkenist</t>
@@ -3095,13 +3095,13 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 29 сек.</t>
+    <t>5 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>cannibalcorpse</t>
   </si>
   <si>
-    <t>22 ч. 17 мин. 1 сек.</t>
+    <t>22 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>417–418</t>
@@ -3173,7 +3173,7 @@
     <t>Noob777</t>
   </si>
   <si>
-    <t>1 ч. 54 мин. 5 сек.</t>
+    <t>1 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>die-hard</t>
@@ -3230,7 +3230,7 @@
     <t>Матизик</t>
   </si>
   <si>
-    <t>37 ч. 16 мин. 4 сек.</t>
+    <t>37 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>436–442</t>
@@ -3257,7 +3257,7 @@
     <t>iPod_touch</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 7 сек.</t>
+    <t>2 ч. 06 мин. 07 сек.</t>
   </si>
   <si>
     <t>toxacheck</t>
@@ -3284,7 +3284,7 @@
     <t>Vespertilio</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>S_T_A_L_K_E_R</t>
@@ -3296,7 +3296,7 @@
     <t>_NoMaD_</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 1 сек.</t>
+    <t>2 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>446–450</t>
@@ -3305,7 +3305,7 @@
     <t>Cavaliers23</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 36 сек.</t>
+    <t>1 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>zoi4</t>
@@ -3344,13 +3344,13 @@
     <t>demonclown</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 1 сек.</t>
+    <t>2 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>лаоцзы</t>
   </si>
   <si>
-    <t>3 ч. 17 мин. 9 сек.</t>
+    <t>3 ч. 17 мин. 09 сек.</t>
   </si>
   <si>
     <t>454–459</t>
@@ -3431,7 +3431,7 @@
     <t>HawlBix</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 2 сек.</t>
+    <t>3 ч. 00 мин. 02 сек.</t>
   </si>
   <si>
     <t>tyrpyr</t>
@@ -3488,7 +3488,7 @@
     <t>KleiAseS</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>Sonick071</t>
@@ -3542,7 +3542,7 @@
     <t>273</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 18 сек.</t>
+    <t>1 ч. 08 мин. 18 сек.</t>
   </si>
   <si>
     <t>Ллисса</t>
@@ -3554,7 +3554,7 @@
     <t>MOYSHA</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 1 сек.</t>
+    <t>1 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>DenL</t>
@@ -3641,7 +3641,7 @@
     <t>pelmen</t>
   </si>
   <si>
-    <t>3 ч. 31 мин. 5 сек.</t>
+    <t>3 ч. 31 мин. 05 сек.</t>
   </si>
   <si>
     <t>497–503</t>
@@ -3650,7 +3650,7 @@
     <t>Kemban</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 13 сек.</t>
+    <t>1 ч. 01 мин. 13 сек.</t>
   </si>
   <si>
     <t>Prodrive</t>
@@ -3680,7 +3680,7 @@
     <t>ждан</t>
   </si>
   <si>
-    <t>20 ч. 5 мин. 16 сек.</t>
+    <t>20 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>Нови4ок76</t>
@@ -3722,7 +3722,7 @@
     <t>Кецба</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 9 сек.</t>
+    <t>1 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>fattiqer</t>
@@ -3770,7 +3770,7 @@
     <t>BI-FI-Car</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 40 сек.</t>
+    <t>5 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>Страшила</t>
@@ -3785,7 +3785,7 @@
     <t>SirenScream</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 45 сек.</t>
+    <t>2 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>Adygha</t>
@@ -3842,7 +3842,7 @@
     <t>ПовелительКотят</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 4 сек.</t>
+    <t>1 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ksor</t>
@@ -3854,7 +3854,7 @@
     <t>Тарья</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 1 сек.</t>
+    <t>2 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Annabeth</t>
@@ -3887,7 +3887,7 @@
     <t>Rightwheel</t>
   </si>
   <si>
-    <t>10 ч. 51 мин. 7 сек.</t>
+    <t>10 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>535–536</t>
@@ -3896,7 +3896,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 3 сек.</t>
+    <t>1 ч. 15 мин. 03 сек.</t>
   </si>
   <si>
     <t>РуссоТуристо</t>
@@ -3923,7 +3923,7 @@
     <t>Raxma</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 2 сек.</t>
+    <t>1 ч. 25 мин. 02 сек.</t>
   </si>
   <si>
     <t>snapfire</t>
@@ -3941,7 +3941,7 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 5 сек.</t>
+    <t>6 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>543–546</t>
@@ -3950,7 +3950,7 @@
     <t>gigimus</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 3 сек.</t>
+    <t>1 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>Kamikad_Ze</t>
@@ -4007,7 +4007,7 @@
     <t>СистемныйАнализ</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 4 сек.</t>
+    <t>0 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>Irlani</t>
@@ -4019,7 +4019,7 @@
     <t>Koth</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 16 сек.</t>
+    <t>1 ч. 06 мин. 16 сек.</t>
   </si>
   <si>
     <t>DeDlol</t>
@@ -4049,13 +4049,13 @@
     <t>VOLLUF</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 4 сек.</t>
+    <t>2 ч. 17 мин. 04 сек.</t>
   </si>
   <si>
     <t>MirZz</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 32 сек.</t>
+    <t>2 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>doklls</t>
@@ -4082,7 +4082,7 @@
     <t>evg64</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 1 сек.</t>
+    <t>1 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>agazadetofik</t>
@@ -4097,19 +4097,19 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>2 ч. 40 мин. 3 сек.</t>
+    <t>2 ч. 40 мин. 03 сек.</t>
   </si>
   <si>
     <t>ele_ele</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 8 сек.</t>
+    <t>2 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>clair</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 6 сек.</t>
+    <t>5 ч. 51 мин. 06 сек.</t>
   </si>
   <si>
     <t>569–570</t>
@@ -4166,7 +4166,7 @@
     <t>tkozak</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 4 сек.</t>
+    <t>1 ч. 22 мин. 04 сек.</t>
   </si>
   <si>
     <t>577–579</t>
@@ -4175,7 +4175,7 @@
     <t>timikus</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 14 сек.</t>
+    <t>1 ч. 07 мин. 14 сек.</t>
   </si>
   <si>
     <t>morozovlalex</t>
@@ -4187,7 +4187,7 @@
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 46 сек.</t>
+    <t>13 ч. 04 мин. 46 сек.</t>
   </si>
   <si>
     <t>580–581</t>
@@ -4211,7 +4211,7 @@
     <t>Lgg_</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 34 сек.</t>
+    <t>2 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>Numb_kz</t>
@@ -4280,13 +4280,13 @@
     <t>Tigror</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 15 сек.</t>
+    <t>2 ч. 07 мин. 15 сек.</t>
   </si>
   <si>
     <t>vido88</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 9 сек.</t>
+    <t>4 ч. 01 мин. 09 сек.</t>
   </si>
   <si>
     <t>warway</t>
@@ -4298,7 +4298,7 @@
     <t>yoyu</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 9 сек.</t>
+    <t>4 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>Азиат</t>
@@ -4325,13 +4325,13 @@
     <t>DcDimon</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 4 сек.</t>
+    <t>2 ч. 01 мин. 04 сек.</t>
   </si>
   <si>
     <t>noob_typist</t>
   </si>
   <si>
-    <t>8 ч. 1 мин. 50 сек.</t>
+    <t>8 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>602</t>
@@ -4340,7 +4340,7 @@
     <t>Евромайдан</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 32 сек.</t>
+    <t>1 ч. 08 мин. 32 сек.</t>
   </si>
   <si>
     <t>603–607</t>
@@ -4355,7 +4355,7 @@
     <t>-MONOLITH</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 7 сек.</t>
+    <t>2 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>ls_600_hl</t>
@@ -4388,7 +4388,7 @@
     <t>Revangleb</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 4 сек.</t>
+    <t>1 ч. 25 мин. 04 сек.</t>
   </si>
   <si>
     <t>XZXZ</t>
@@ -4412,7 +4412,7 @@
     <t>HappyHardcore</t>
   </si>
   <si>
-    <t>9 ч. 37 мин. 6 сек.</t>
+    <t>9 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>614–618</t>
@@ -4421,7 +4421,7 @@
     <t>MarineLandscape</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 58 сек.</t>
+    <t>1 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>Hitch42</t>
@@ -4496,7 +4496,7 @@
     <t>karalina</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 45 сек.</t>
+    <t>17 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>627–633</t>
@@ -4505,13 +4505,13 @@
     <t>I-van</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 3 сек.</t>
+    <t>1 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>Keysman</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 9 сек.</t>
+    <t>1 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>Zheka169</t>
@@ -4523,13 +4523,13 @@
     <t>Alex_Volo</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 4 сек.</t>
+    <t>1 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>GrandSwuirrel</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 32 сек.</t>
+    <t>2 ч. 06 мин. 32 сек.</t>
   </si>
   <si>
     <t>batton</t>
@@ -4565,13 +4565,13 @@
     <t>Френдли</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 41 сек.</t>
+    <t>2 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>genie_1855</t>
   </si>
   <si>
-    <t>2 ч. 43 мин. 6 сек.</t>
+    <t>2 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>638–639</t>
@@ -4652,19 +4652,19 @@
     <t>LokoBoss</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 4 сек.</t>
+    <t>10 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>ЕНИ</t>
   </si>
   <si>
-    <t>11 ч. 17 мин. 2 сек.</t>
+    <t>11 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>Leolex</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 55 сек.</t>
+    <t>11 ч. 04 мин. 55 сек.</t>
   </si>
   <si>
     <t>652–653</t>
@@ -4712,7 +4712,7 @@
     <t>Plectrum</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 7 сек.</t>
+    <t>2 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>КиберАтлет</t>
@@ -4724,7 +4724,7 @@
     <t>shagrat_07</t>
   </si>
   <si>
-    <t>10 ч. 6 мин. 39 сек.</t>
+    <t>10 ч. 06 мин. 39 сек.</t>
   </si>
   <si>
     <t>661–665</t>
@@ -4781,19 +4781,19 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 2 сек.</t>
+    <t>1 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>ilya_138</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 9 сек.</t>
+    <t>1 ч. 52 мин. 09 сек.</t>
   </si>
   <si>
     <t>pewpewpow</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 19 сек.</t>
+    <t>2 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>feinstein</t>
@@ -4841,7 +4841,7 @@
     <t>psv2014</t>
   </si>
   <si>
-    <t>7 ч. 3 мин. 39 сек.</t>
+    <t>7 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>679–681</t>
@@ -4892,7 +4892,7 @@
     <t>molto_bella</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 4 сек.</t>
+    <t>1 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>Ыыыыыы</t>
@@ -4910,7 +4910,7 @@
     <t>ORV88</t>
   </si>
   <si>
-    <t>4 ч. 31 мин. 0 сек.</t>
+    <t>4 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>689–694</t>
@@ -4925,7 +4925,7 @@
     <t>dimasi</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 56 сек.</t>
+    <t>2 ч. 04 мин. 56 сек.</t>
   </si>
   <si>
     <t>HAN_DRA</t>
@@ -4943,7 +4943,7 @@
     <t>lightmor</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 27 сек.</t>
+    <t>7 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>CBETJIAHA</t>
@@ -4964,7 +4964,7 @@
     <t>mibig</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 57 сек.</t>
+    <t>2 ч. 08 мин. 57 сек.</t>
   </si>
   <si>
     <t>kasiveyser</t>
@@ -5006,7 +5006,7 @@
     <t>Batbara</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 1 сек.</t>
+    <t>2 ч. 02 мин. 01 сек.</t>
   </si>
   <si>
     <t>agor</t>
@@ -5039,13 +5039,13 @@
     <t>L_E_O</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 7 сек.</t>
+    <t>1 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>ritochka27</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 27 сек.</t>
+    <t>2 ч. 02 мин. 27 сек.</t>
   </si>
   <si>
     <t>Dimanus</t>
@@ -5066,7 +5066,7 @@
     <t>aGm</t>
   </si>
   <si>
-    <t>16 ч. 58 мин. 1 сек.</t>
+    <t>16 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>712</t>
@@ -5096,19 +5096,19 @@
     <t>rashsik</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 54 сек.</t>
+    <t>2 ч. 00 мин. 54 сек.</t>
   </si>
   <si>
     <t>Squirr</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 17 сек.</t>
+    <t>2 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>Julieta-nv</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 39 сек.</t>
+    <t>2 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>ВалераУлитка</t>
@@ -5126,7 +5126,7 @@
     <t>ArrowMiara</t>
   </si>
   <si>
-    <t>4 ч. 17 мин. 5 сек.</t>
+    <t>4 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>721–722</t>
@@ -5135,13 +5135,13 @@
     <t>Saiche</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 3 сек.</t>
+    <t>1 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>Серж_Благ</t>
   </si>
   <si>
-    <t>8 ч. 36 мин. 3 сек.</t>
+    <t>8 ч. 36 мин. 03 сек.</t>
   </si>
   <si>
     <t>723–727</t>
@@ -5213,7 +5213,7 @@
     <t>Лелюгри</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 34 сек.</t>
+    <t>2 ч. 04 мин. 34 сек.</t>
   </si>
   <si>
     <t>alexivanisov</t>
@@ -5267,7 +5267,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 5 сек.</t>
+    <t>4 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>Kanzi</t>
@@ -5351,7 +5351,7 @@
     <t>hotdude</t>
   </si>
   <si>
-    <t>4 ч. 42 мин. 3 сек.</t>
+    <t>4 ч. 42 мин. 03 сек.</t>
   </si>
   <si>
     <t>755–756</t>
@@ -5426,7 +5426,7 @@
     <t>NewB</t>
   </si>
   <si>
-    <t>3 ч. 47 мин. 6 сек.</t>
+    <t>3 ч. 47 мин. 06 сек.</t>
   </si>
   <si>
     <t>wintersun</t>
@@ -5492,7 +5492,7 @@
     <t>Grevozin</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 41 сек.</t>
+    <t>3 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>RoRio</t>
@@ -5513,7 +5513,7 @@
     <t>NIKKOV</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 5 сек.</t>
+    <t>2 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>Ildus</t>
@@ -5552,7 +5552,7 @@
     <t>Dokee</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 3 сек.</t>
+    <t>2 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>greenbear</t>
@@ -5576,7 +5576,7 @@
     <t>BAHO_Sh</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 1 сек.</t>
+    <t>1 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>Prana</t>
@@ -5606,7 +5606,7 @@
     <t>jooga</t>
   </si>
   <si>
-    <t>4 ч. 36 мин. 9 сек.</t>
+    <t>4 ч. 36 мин. 09 сек.</t>
   </si>
   <si>
     <t>Mask2017</t>
@@ -5627,7 +5627,7 @@
     <t>Canna</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 8 сек.</t>
+    <t>1 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>Fjkeee</t>
@@ -5639,7 +5639,7 @@
     <t>Ann_13</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 46 сек.</t>
+    <t>2 ч. 07 мин. 46 сек.</t>
   </si>
   <si>
     <t>olegas</t>
@@ -5651,13 +5651,13 @@
     <t>Kraken1994</t>
   </si>
   <si>
-    <t>3 ч. 11 мин. 8 сек.</t>
+    <t>3 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>Tenguy</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 40 сек.</t>
+    <t>3 ч. 01 мин. 40 сек.</t>
   </si>
   <si>
     <t>gennadiyb</t>
@@ -5669,7 +5669,7 @@
     <t>owiden</t>
   </si>
   <si>
-    <t>4 ч. 9 мин. 1 сек.</t>
+    <t>4 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>804–809</t>
@@ -5696,7 +5696,7 @@
     <t>SGP63</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 6 сек.</t>
+    <t>3 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>Nicel</t>
@@ -5744,13 +5744,13 @@
     <t>РодионГ</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 0 сек.</t>
+    <t>1 ч. 45 мин. 00 сек.</t>
   </si>
   <si>
     <t>ShadenII</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 4 сек.</t>
+    <t>2 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>Novatin</t>
@@ -5762,7 +5762,7 @@
     <t>beznickk</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 5 сек.</t>
+    <t>3 ч. 15 мин. 05 сек.</t>
   </si>
   <si>
     <t>Felikc</t>
@@ -5777,19 +5777,19 @@
     <t>Arachne</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 16 сек.</t>
+    <t>2 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>tinto</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 2 сек.</t>
+    <t>3 ч. 10 мин. 02 сек.</t>
   </si>
   <si>
     <t>Umunty</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 2 сек.</t>
+    <t>4 ч. 02 мин. 02 сек.</t>
   </si>
   <si>
     <t>822–829</t>
@@ -5810,7 +5810,7 @@
     <t>Phoen9ix</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 0 сек.</t>
+    <t>1 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>капча</t>
@@ -5885,13 +5885,13 @@
     <t>Alston</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 37 сек.</t>
+    <t>3 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>threesev</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 4 сек.</t>
+    <t>3 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>839–845</t>
@@ -5924,7 +5924,7 @@
     <t>Яня</t>
   </si>
   <si>
-    <t>2 ч. 49 мин. 2 сек.</t>
+    <t>2 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>cherepah</t>
@@ -5936,7 +5936,7 @@
     <t>Арчи87</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 53 сек.</t>
+    <t>4 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>846–847</t>
@@ -5951,7 +5951,7 @@
     <t>12061987</t>
   </si>
   <si>
-    <t>5 ч. 51 мин. 4 сек.</t>
+    <t>5 ч. 51 мин. 04 сек.</t>
   </si>
   <si>
     <t>848–853</t>
@@ -5966,7 +5966,7 @@
     <t>M-A-K-S</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 1 сек.</t>
+    <t>2 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>slaker22</t>
@@ -6011,7 +6011,7 @@
     <t>Pablo_Ruis</t>
   </si>
   <si>
-    <t>4 ч. 29 мин. 2 сек.</t>
+    <t>4 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>858–862</t>
@@ -6053,7 +6053,7 @@
     <t>Эльфинит</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 42 сек.</t>
+    <t>2 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>864–866</t>
@@ -6068,7 +6068,7 @@
     <t>smsn</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 2 сек.</t>
+    <t>2 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>exploration</t>
@@ -6095,7 +6095,7 @@
     <t>heavy_ezh</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 6 сек.</t>
+    <t>2 ч. 00 мин. 06 сек.</t>
   </si>
   <si>
     <t>870–874</t>
@@ -6143,7 +6143,7 @@
     <t>tom280586</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 8 сек.</t>
+    <t>2 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>inexpert</t>
@@ -6155,13 +6155,13 @@
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 4 сек.</t>
+    <t>3 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>Руфер</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 8 сек.</t>
+    <t>2 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>Жижикова</t>
@@ -6200,7 +6200,7 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 5 сек.</t>
+    <t>5 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>Boolbek</t>
@@ -6212,7 +6212,7 @@
     <t>Grizzly284</t>
   </si>
   <si>
-    <t>18 ч. 7 мин. 31 сек.</t>
+    <t>18 ч. 07 мин. 31 сек.</t>
   </si>
   <si>
     <t>888–890</t>
@@ -6233,7 +6233,7 @@
     <t>Stob</t>
   </si>
   <si>
-    <t>13 ч. 0 мин. 50 сек.</t>
+    <t>13 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>891–898</t>
@@ -6260,7 +6260,7 @@
     <t>thefastest</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 5 сек.</t>
+    <t>2 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>Callahan</t>
@@ -6272,7 +6272,7 @@
     <t>natasha272004</t>
   </si>
   <si>
-    <t>4 ч. 19 мин. 2 сек.</t>
+    <t>4 ч. 19 мин. 02 сек.</t>
   </si>
   <si>
     <t>Владимир_</t>
@@ -6317,7 +6317,7 @@
     <t>ГоречьПоражения</t>
   </si>
   <si>
-    <t>3 ч. 37 мин. 4 сек.</t>
+    <t>3 ч. 37 мин. 04 сек.</t>
   </si>
   <si>
     <t>Сима44</t>
@@ -6338,7 +6338,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>1 ч. 26 мин. 2 сек.</t>
+    <t>1 ч. 26 мин. 02 сек.</t>
   </si>
   <si>
     <t>ЕвгенияСеверная</t>
@@ -6356,7 +6356,7 @@
     <t>Алексей_победа</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 0 сек.</t>
+    <t>8 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>Владимир1989</t>
@@ -6392,13 +6392,13 @@
     <t>Slenderman</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 7 сек.</t>
+    <t>2 ч. 54 мин. 07 сек.</t>
   </si>
   <si>
     <t>Петр_Шестаков</t>
   </si>
   <si>
-    <t>4 ч. 32 мин. 7 сек.</t>
+    <t>4 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>Dmitrii008</t>
@@ -6440,7 +6440,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>3 ч. 50 мин. 8 сек.</t>
+    <t>3 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>922–925</t>
@@ -6461,7 +6461,7 @@
     <t>telephone</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 17 сек.</t>
+    <t>4 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>archi77</t>
@@ -6482,7 +6482,7 @@
     <t>vikinka</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 8 сек.</t>
+    <t>1 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>victgerasimova</t>
@@ -6500,7 +6500,7 @@
     <t>sergundo</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 19 сек.</t>
+    <t>5 ч. 06 мин. 19 сек.</t>
   </si>
   <si>
     <t>Jasper12</t>
@@ -6524,7 +6524,7 @@
     <t>000Норик000</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 16 сек.</t>
+    <t>3 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>raschoska</t>
@@ -6542,7 +6542,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 0 сек.</t>
+    <t>4 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>cocky_funny</t>
@@ -6584,7 +6584,7 @@
     <t>Алека</t>
   </si>
   <si>
-    <t>11 ч. 18 мин. 8 сек.</t>
+    <t>11 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>945–954</t>
@@ -6614,7 +6614,7 @@
     <t>Dude2</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 28 сек.</t>
+    <t>2 ч. 02 мин. 28 сек.</t>
   </si>
   <si>
     <t>Kemp</t>
@@ -6641,7 +6641,7 @@
     <t>СуперСпринт</t>
   </si>
   <si>
-    <t>4 ч. 53 мин. 4 сек.</t>
+    <t>4 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>955–957</t>
@@ -6692,7 +6692,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 1 сек.</t>
+    <t>6 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>963–964</t>
@@ -6716,7 +6716,7 @@
     <t>sovofeel</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 6 сек.</t>
+    <t>1 ч. 31 мин. 06 сек.</t>
   </si>
   <si>
     <t>Kross_One</t>
@@ -6785,13 +6785,13 @@
     <t>gromanspb</t>
   </si>
   <si>
-    <t>2 ч. 13 мин. 8 сек.</t>
+    <t>2 ч. 13 мин. 08 сек.</t>
   </si>
   <si>
     <t>нуммулит</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 55 сек.</t>
+    <t>8 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>a-lena</t>
@@ -6818,13 +6818,13 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>10 ч. 45 мин. 6 сек.</t>
+    <t>10 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>Графит</t>
   </si>
   <si>
-    <t>51 ч. 49 мин. 2 сек.</t>
+    <t>51 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>983–985</t>
@@ -6860,7 +6860,7 @@
     <t>fominov</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 8 сек.</t>
+    <t>3 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>kochtaik</t>
@@ -6881,7 +6881,7 @@
     <t>косогор_</t>
   </si>
   <si>
-    <t>8 ч. 3 мин. 26 сек.</t>
+    <t>8 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>992–994</t>
@@ -6896,13 +6896,13 @@
     <t>Рюша</t>
   </si>
   <si>
-    <t>3 ч. 16 мин. 7 сек.</t>
+    <t>3 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>zimeth9</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 16 сек.</t>
+    <t>10 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>995–1000</t>
@@ -6947,7 +6947,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 59 сек.</t>
+    <t>2 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>sashokcool</t>
@@ -6965,7 +6965,7 @@
     <t>mrdamon</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 41 сек.</t>
+    <t>10 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>1005</t>
@@ -7019,7 +7019,7 @@
     <t>Adlerrr1974</t>
   </si>
   <si>
-    <t>2 ч. 10 мин. 7 сек.</t>
+    <t>2 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>БурячОК</t>
@@ -7040,7 +7040,7 @@
     <t>Маркизик</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 1 сек.</t>
+    <t>1 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>Дрот-Задрот</t>
@@ -7076,7 +7076,7 @@
     <t>Chat-Fighter</t>
   </si>
   <si>
-    <t>2 ч. 34 мин. 8 сек.</t>
+    <t>2 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>Lizardress</t>
@@ -7088,7 +7088,7 @@
     <t>Корн</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 53 сек.</t>
+    <t>3 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>1024–1028</t>
@@ -7109,7 +7109,7 @@
     <t>Аналбум21378</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 3 сек.</t>
+    <t>2 ч. 33 мин. 03 сек.</t>
   </si>
   <si>
     <t>Weji23</t>
@@ -7142,7 +7142,7 @@
     <t>karabaska</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>blue_sky</t>
@@ -7160,7 +7160,7 @@
     <t>a_inc</t>
   </si>
   <si>
-    <t>83 ч. 11 мин. 5 сек.</t>
+    <t>83 ч. 11 мин. 05 сек.</t>
   </si>
   <si>
     <t>1035</t>
@@ -7211,7 +7211,7 @@
     <t>Uri55</t>
   </si>
   <si>
-    <t>15 ч. 47 мин. 4 сек.</t>
+    <t>15 ч. 47 мин. 04 сек.</t>
   </si>
   <si>
     <t>1043–1047</t>
@@ -7226,7 +7226,7 @@
     <t>sergeiss_nn</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 0 сек.</t>
+    <t>1 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>georg_armani83</t>
@@ -7244,7 +7244,7 @@
     <t>metadenisik</t>
   </si>
   <si>
-    <t>5 ч. 17 мин. 1 сек.</t>
+    <t>5 ч. 17 мин. 01 сек.</t>
   </si>
   <si>
     <t>1048–1053</t>
@@ -7283,7 +7283,7 @@
     <t>Aknx</t>
   </si>
   <si>
-    <t>34 ч. 9 мин. 13 сек.</t>
+    <t>34 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>1054–1059</t>
@@ -7298,7 +7298,7 @@
     <t>klavobit</t>
   </si>
   <si>
-    <t>2 ч. 31 мин. 2 сек.</t>
+    <t>2 ч. 31 мин. 02 сек.</t>
   </si>
   <si>
     <t>яКатя</t>
@@ -7310,7 +7310,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 7 сек.</t>
+    <t>5 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>viranda</t>
@@ -7367,7 +7367,7 @@
     <t>lichinko</t>
   </si>
   <si>
-    <t>14 ч. 5 мин. 40 сек.</t>
+    <t>14 ч. 05 мин. 40 сек.</t>
   </si>
   <si>
     <t>1067–1071</t>
@@ -7376,7 +7376,7 @@
     <t>XNeon</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 3 сек.</t>
+    <t>1 ч. 55 мин. 03 сек.</t>
   </si>
   <si>
     <t>graffdemorai</t>
@@ -7400,7 +7400,7 @@
     <t>ANYA111</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 21 сек.</t>
+    <t>20 ч. 08 мин. 21 сек.</t>
   </si>
   <si>
     <t>1072–1076</t>
@@ -7421,7 +7421,7 @@
     <t>jfk</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 1 сек.</t>
+    <t>2 ч. 06 мин. 01 сек.</t>
   </si>
   <si>
     <t>zewz</t>
@@ -7490,13 +7490,13 @@
     <t>kotartur</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 42 сек.</t>
+    <t>2 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>Levscha86</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 34 сек.</t>
+    <t>2 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>Netinet1</t>
@@ -7514,7 +7514,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 49 сек.</t>
+    <t>11 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>1089–1090</t>
@@ -7529,7 +7529,7 @@
     <t>mesenev</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 33 сек.</t>
+    <t>2 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>1091–1093</t>
@@ -7544,13 +7544,13 @@
     <t>NePhiLiM</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>vvl</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 58 сек.</t>
+    <t>3 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>1094–1095</t>
@@ -7565,7 +7565,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 40 сек.</t>
+    <t>3 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>1096–1098</t>
@@ -7574,7 +7574,7 @@
     <t>zavex</t>
   </si>
   <si>
-    <t>3 ч. 20 мин. 3 сек.</t>
+    <t>3 ч. 20 мин. 03 сек.</t>
   </si>
   <si>
     <t>serge99rus</t>
@@ -7586,7 +7586,7 @@
     <t>Щелкунчик</t>
   </si>
   <si>
-    <t>5 ч. 14 мин. 5 сек.</t>
+    <t>5 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>1099–1103</t>
@@ -7607,7 +7607,7 @@
     <t>Гончаренко</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>olegaz</t>
@@ -7640,7 +7640,7 @@
     <t>Abel1sk</t>
   </si>
   <si>
-    <t>3 ч. 54 мин. 1 сек.</t>
+    <t>3 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>Nuria</t>
@@ -7652,13 +7652,13 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 24 сек.</t>
+    <t>2 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>Навьер</t>
   </si>
   <si>
-    <t>8 ч. 8 мин. 13 сек.</t>
+    <t>8 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>1111–1113</t>
@@ -7679,7 +7679,7 @@
     <t>Спелый</t>
   </si>
   <si>
-    <t>11 ч. 30 мин. 8 сек.</t>
+    <t>11 ч. 30 мин. 08 сек.</t>
   </si>
   <si>
     <t>1114–1117</t>
@@ -7700,13 +7700,13 @@
     <t>genafdsa</t>
   </si>
   <si>
-    <t>9 ч. 36 мин. 5 сек.</t>
+    <t>9 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>polyanytsya</t>
   </si>
   <si>
-    <t>20 ч. 7 мин. 45 сек.</t>
+    <t>20 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>1118–1120</t>
@@ -7742,7 +7742,7 @@
     <t>ArtefactX</t>
   </si>
   <si>
-    <t>2 ч. 27 мин. 5 сек.</t>
+    <t>2 ч. 27 мин. 05 сек.</t>
   </si>
   <si>
     <t>MrNikituwka</t>
@@ -7769,13 +7769,13 @@
     <t>Daene</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 28 сек.</t>
+    <t>2 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>cucu</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 3 сек.</t>
+    <t>2 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>Artem7</t>
@@ -7823,7 +7823,7 @@
     <t>za555</t>
   </si>
   <si>
-    <t>8 ч. 51 мин. 3 сек.</t>
+    <t>8 ч. 51 мин. 03 сек.</t>
   </si>
   <si>
     <t>1135–1137</t>
@@ -7859,13 +7859,13 @@
     <t>Аннетт</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 59 сек.</t>
+    <t>3 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>Михаил-12рус</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 9 сек.</t>
+    <t>4 ч. 03 мин. 09 сек.</t>
   </si>
   <si>
     <t>Phenom_2009</t>
@@ -7892,7 +7892,7 @@
     <t>makorvi</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 4 сек.</t>
+    <t>3 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>Шмакодявка</t>
@@ -7925,13 +7925,13 @@
     <t>e2e4</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 33 сек.</t>
+    <t>2 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>tonyk</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 28 сек.</t>
+    <t>16 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>Всеслик</t>
@@ -7970,7 +7970,7 @@
     <t>Sunrise13</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 1 сек.</t>
+    <t>2 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>master2401</t>
@@ -8000,7 +8000,7 @@
     <t>Aleksius</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 21 сек.</t>
+    <t>3 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>f34r</t>
@@ -8027,7 +8027,7 @@
     <t>Oleg1</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 9 сек.</t>
+    <t>7 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>1166–1169</t>
@@ -8036,7 +8036,7 @@
     <t>vshevtsov</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>zhenysoskaa</t>
@@ -8048,7 +8048,7 @@
     <t>Thrust_SSC</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 22 сек.</t>
+    <t>3 ч. 06 мин. 22 сек.</t>
   </si>
   <si>
     <t>miniy</t>
@@ -8096,7 +8096,7 @@
     <t>Salamondro</t>
   </si>
   <si>
-    <t>2 ч. 54 мин. 6 сек.</t>
+    <t>2 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>1176–1178</t>
@@ -8105,7 +8105,7 @@
     <t>cristini</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 30 сек.</t>
+    <t>4 ч. 01 мин. 30 сек.</t>
   </si>
   <si>
     <t>OlegaBaranov</t>
@@ -8117,7 +8117,7 @@
     <t>hippo2047</t>
   </si>
   <si>
-    <t>87 ч. 45 мин. 3 сек.</t>
+    <t>87 ч. 45 мин. 03 сек.</t>
   </si>
   <si>
     <t>1179–1184</t>
@@ -8126,7 +8126,7 @@
     <t>ErgoFrog</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 41 сек.</t>
+    <t>2 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>pl_yoko</t>
@@ -8138,13 +8138,13 @@
     <t>Маквинчик</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 40 сек.</t>
+    <t>2 ч. 06 мин. 40 сек.</t>
   </si>
   <si>
     <t>Aiphos</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 15 сек.</t>
+    <t>2 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>v1t9</t>
@@ -8156,7 +8156,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>7 ч. 41 мин. 4 сек.</t>
+    <t>7 ч. 41 мин. 04 сек.</t>
   </si>
   <si>
     <t>1185–1188</t>
@@ -8195,7 +8195,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 9 сек.</t>
+    <t>2 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>chupaderus</t>
@@ -8216,7 +8216,7 @@
     <t>Модильяни</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 2 сек.</t>
+    <t>1 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>skSandraA</t>
@@ -8228,7 +8228,7 @@
     <t>NaCl</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 2 сек.</t>
+    <t>5 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>1196–1198</t>
@@ -8306,7 +8306,7 @@
     <t>Tatoshka11</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 39 сек.</t>
+    <t>5 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>1207–1209</t>
@@ -8315,13 +8315,13 @@
     <t>Anarjell</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 57 сек.</t>
+    <t>3 ч. 06 мин. 57 сек.</t>
   </si>
   <si>
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 28 сек.</t>
+    <t>5 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>Serko72</t>
@@ -8345,7 +8345,7 @@
     <t>Vladimir72</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 8 сек.</t>
+    <t>1 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>bronikkk</t>
@@ -8360,7 +8360,7 @@
     <t>Kansee</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 5 сек.</t>
+    <t>1 ч. 40 мин. 05 сек.</t>
   </si>
   <si>
     <t>verdona</t>
@@ -8384,7 +8384,7 @@
     <t>SergeK</t>
   </si>
   <si>
-    <t>3 ч. 58 мин. 7 сек.</t>
+    <t>3 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>1218–1220</t>
@@ -8411,7 +8411,7 @@
     <t>La_Nr</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 2 сек.</t>
+    <t>1 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>DmitriyNB</t>
@@ -8429,7 +8429,7 @@
     <t>aleks2ud</t>
   </si>
   <si>
-    <t>2 ч. 25 мин. 0 сек.</t>
+    <t>2 ч. 25 мин. 00 сек.</t>
   </si>
   <si>
     <t>МОТОРНЫЙ</t>
@@ -8453,7 +8453,7 @@
     <t>disbios</t>
   </si>
   <si>
-    <t>5 ч. 31 мин. 8 сек.</t>
+    <t>5 ч. 31 мин. 08 сек.</t>
   </si>
   <si>
     <t>1229–1230</t>
@@ -8462,7 +8462,7 @@
     <t>miran</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 0 сек.</t>
+    <t>1 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>ППШ</t>
@@ -8483,7 +8483,7 @@
     <t>ehbq</t>
   </si>
   <si>
-    <t>5 ч. 31 мин. 7 сек.</t>
+    <t>5 ч. 31 мин. 07 сек.</t>
   </si>
   <si>
     <t>Schuss</t>
@@ -8498,7 +8498,7 @@
     <t>ooojaming</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 45 сек.</t>
+    <t>3 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>1235–1238</t>
@@ -8507,7 +8507,7 @@
     <t>Алексей_19</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 57 сек.</t>
+    <t>2 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>rar17</t>
@@ -8519,7 +8519,7 @@
     <t>yaytsepes</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 52 сек.</t>
+    <t>4 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>вмщеу</t>
@@ -8585,7 +8585,7 @@
     <t>ohirok</t>
   </si>
   <si>
-    <t>6 ч. 50 мин. 3 сек.</t>
+    <t>6 ч. 50 мин. 03 сек.</t>
   </si>
   <si>
     <t>1248</t>
@@ -8594,7 +8594,7 @@
     <t>XR7</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 50 сек.</t>
+    <t>2 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>1249–1252</t>
@@ -8609,7 +8609,7 @@
     <t>Wolcharryk</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 51 сек.</t>
+    <t>8 ч. 05 мин. 51 сек.</t>
   </si>
   <si>
     <t>ksv63</t>
@@ -8630,7 +8630,7 @@
     <t>mexakis</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 3 сек.</t>
+    <t>2 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>1254–1255</t>
@@ -8645,7 +8645,7 @@
     <t>master_20</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 47 сек.</t>
+    <t>4 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>1256</t>
@@ -8654,7 +8654,7 @@
     <t>traivens</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 7 сек.</t>
+    <t>2 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>1257–1261</t>
@@ -8669,13 +8669,13 @@
     <t>ydog</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 2 сек.</t>
+    <t>3 ч. 33 мин. 02 сек.</t>
   </si>
   <si>
     <t>Alex_747</t>
   </si>
   <si>
-    <t>3 ч. 40 мин. 8 сек.</t>
+    <t>3 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>pikwik</t>
@@ -8714,7 +8714,7 @@
     <t>Nigrodeus</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 6 сек.</t>
+    <t>1 ч. 47 мин. 06 сек.</t>
   </si>
   <si>
     <t>1266–1267</t>
@@ -8753,7 +8753,7 @@
     <t>Kiberdinka</t>
   </si>
   <si>
-    <t>7 ч. 50 мин. 6 сек.</t>
+    <t>7 ч. 50 мин. 06 сек.</t>
   </si>
   <si>
     <t>1271–1272</t>
@@ -8789,7 +8789,7 @@
     <t>Rigger</t>
   </si>
   <si>
-    <t>6 ч. 3 мин. 10 сек.</t>
+    <t>6 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>1276</t>
@@ -8798,7 +8798,7 @@
     <t>Zasadaa</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 12 сек.</t>
+    <t>7 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>1277</t>
@@ -8816,13 +8816,13 @@
     <t>sergiorm</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 57 сек.</t>
+    <t>3 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>PavlovaLS</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 11 сек.</t>
+    <t>3 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>1280–1282</t>
@@ -8843,7 +8843,7 @@
     <t>Томас86</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 58 сек.</t>
+    <t>4 ч. 01 мин. 58 сек.</t>
   </si>
   <si>
     <t>1283</t>
@@ -8861,7 +8861,7 @@
     <t>alensw4</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 3 сек.</t>
+    <t>6 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>1285–1286</t>
@@ -8915,7 +8915,7 @@
     <t>ozeki</t>
   </si>
   <si>
-    <t>4 ч. 18 мин. 8 сек.</t>
+    <t>4 ч. 18 мин. 08 сек.</t>
   </si>
   <si>
     <t>lewchel</t>
@@ -8945,7 +8945,7 @@
     <t>Татуяна</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 2 сек.</t>
+    <t>3 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>mylpo</t>
@@ -8999,7 +8999,7 @@
     <t>dtsarenok</t>
   </si>
   <si>
-    <t>7 ч. 4 мин. 5 сек.</t>
+    <t>7 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>1304–1307</t>
@@ -9041,13 +9041,13 @@
     <t>lusisha</t>
   </si>
   <si>
-    <t>2 ч. 50 мин. 2 сек.</t>
+    <t>2 ч. 50 мин. 02 сек.</t>
   </si>
   <si>
     <t>ira77_77</t>
   </si>
   <si>
-    <t>7 ч. 0 мин. 27 сек.</t>
+    <t>7 ч. 00 мин. 27 сек.</t>
   </si>
   <si>
     <t>1312–1314</t>
@@ -9056,13 +9056,13 @@
     <t>Элюня</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 32 сек.</t>
+    <t>3 ч. 03 мин. 32 сек.</t>
   </si>
   <si>
     <t>Ласточка-</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 41 сек.</t>
+    <t>4 ч. 00 мин. 41 сек.</t>
   </si>
   <si>
     <t>Вася_</t>
@@ -9095,7 +9095,7 @@
     <t>Albert_Sabitov</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 10 сек.</t>
+    <t>3 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>maksusar</t>
@@ -9131,7 +9131,7 @@
     <t>bekatop</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 45 сек.</t>
+    <t>29 ч. 06 мин. 45 сек.</t>
   </si>
   <si>
     <t>1323–1325</t>
@@ -9167,7 +9167,7 @@
     <t>Elinochka</t>
   </si>
   <si>
-    <t>5 ч. 13 мин. 2 сек.</t>
+    <t>5 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>1328–1331</t>
@@ -9239,13 +9239,13 @@
     <t>Iriska999</t>
   </si>
   <si>
-    <t>4 ч. 22 мин. 4 сек.</t>
+    <t>4 ч. 22 мин. 04 сек.</t>
   </si>
   <si>
     <t>205i</t>
   </si>
   <si>
-    <t>6 ч. 49 мин. 5 сек.</t>
+    <t>6 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>Анатолийй</t>
@@ -9266,7 +9266,7 @@
     <t>siquatera</t>
   </si>
   <si>
-    <t>65 ч. 52 мин. 2 сек.</t>
+    <t>65 ч. 52 мин. 02 сек.</t>
   </si>
   <si>
     <t>1342</t>
@@ -9329,7 +9329,7 @@
     <t>SofaKo</t>
   </si>
   <si>
-    <t>7 ч. 13 мин. 1 сек.</t>
+    <t>7 ч. 13 мин. 01 сек.</t>
   </si>
   <si>
     <t>USSR13</t>
@@ -9350,7 +9350,7 @@
     <t>anguis</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 12 сек.</t>
+    <t>3 ч. 02 мин. 12 сек.</t>
   </si>
   <si>
     <t>Adgedan</t>
@@ -9383,7 +9383,7 @@
     <t>Shystrui</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 32 сек.</t>
+    <t>4 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>1358</t>
@@ -9410,7 +9410,7 @@
     <t>Katastrofffa</t>
   </si>
   <si>
-    <t>4 ч. 23 мин. 2 сек.</t>
+    <t>4 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>1361–1362</t>
@@ -9425,7 +9425,7 @@
     <t>frolix</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 12 сек.</t>
+    <t>7 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>1363</t>
@@ -9434,7 +9434,7 @@
     <t>M0Ng0</t>
   </si>
   <si>
-    <t>31 ч. 5 мин. 11 сек.</t>
+    <t>31 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>1364</t>
@@ -9470,13 +9470,13 @@
     <t>zvonenko</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 48 сек.</t>
+    <t>3 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>ilyavedler85</t>
   </si>
   <si>
-    <t>6 ч. 59 мин. 9 сек.</t>
+    <t>6 ч. 59 мин. 09 сек.</t>
   </si>
   <si>
     <t>1369–1370</t>
@@ -9515,7 +9515,7 @@
     <t>Минчанка</t>
   </si>
   <si>
-    <t>8 ч. 9 мин. 52 сек.</t>
+    <t>8 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>1374</t>
@@ -9524,7 +9524,7 @@
     <t>fill341</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 41 сек.</t>
+    <t>3 ч. 06 мин. 41 сек.</t>
   </si>
   <si>
     <t>1375</t>
@@ -9566,7 +9566,7 @@
     <t>ROMACHKA</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 7 сек.</t>
+    <t>4 ч. 56 мин. 07 сек.</t>
   </si>
   <si>
     <t>1380</t>
@@ -9575,7 +9575,7 @@
     <t>Gadetska_Yulia</t>
   </si>
   <si>
-    <t>6 ч. 12 мин. 7 сек.</t>
+    <t>6 ч. 12 мин. 07 сек.</t>
   </si>
   <si>
     <t>1381</t>
@@ -9644,7 +9644,7 @@
     <t>северодвинск66</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 42 сек.</t>
+    <t>4 ч. 06 мин. 42 сек.</t>
   </si>
   <si>
     <t>1389</t>
@@ -9686,7 +9686,7 @@
     <t>Livens</t>
   </si>
   <si>
-    <t>3 ч. 39 мин. 8 сек.</t>
+    <t>3 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>nedemo</t>
@@ -9707,7 +9707,7 @@
     <t>улитка1</t>
   </si>
   <si>
-    <t>32 ч. 7 мин. 53 сек.</t>
+    <t>32 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>1397</t>
@@ -9716,7 +9716,7 @@
     <t>Lilia_Gadetska</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 15 сек.</t>
+    <t>13 ч. 01 мин. 15 сек.</t>
   </si>
   <si>
     <t>1398</t>
@@ -9755,7 +9755,7 @@
     <t>vremyada</t>
   </si>
   <si>
-    <t>6 ч. 20 мин. 9 сек.</t>
+    <t>6 ч. 20 мин. 09 сек.</t>
   </si>
   <si>
     <t>1403</t>
@@ -9773,7 +9773,7 @@
     <t>StarBA</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 18 сек.</t>
+    <t>10 ч. 07 мин. 18 сек.</t>
   </si>
   <si>
     <t>1405</t>
@@ -9833,7 +9833,7 @@
     <t>tvger</t>
   </si>
   <si>
-    <t>6 ч. 4 мин. 38 сек.</t>
+    <t>6 ч. 04 мин. 38 сек.</t>
   </si>
   <si>
     <t>1412</t>
@@ -9866,7 +9866,7 @@
     <t>xfhkb</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 17 сек.</t>
+    <t>17 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>1416</t>
@@ -9899,13 +9899,13 @@
     <t>orlova-na1949</t>
   </si>
   <si>
-    <t>6 ч. 2 мин. 54 сек.</t>
+    <t>6 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>Елена29</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 55 сек.</t>
+    <t>6 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>1421</t>
@@ -9932,7 +9932,7 @@
     <t>trivium</t>
   </si>
   <si>
-    <t>18 ч. 36 мин. 6 сек.</t>
+    <t>18 ч. 36 мин. 06 сек.</t>
   </si>
 </sst>
 </file>
